--- a/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_animal_03_act.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_animal_03_act.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.126814815262001e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>6.100126508929432e-16</v>
+        <v>9.392871877924969e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1795.673631079299</v>
+        <v>284.6883340679295</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1554.6550239356002, 2036.6922382229982]</t>
+          <t>[157.97258682619815, 411.4040813096609]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.975092647721333e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.975092647721333e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.471737098979002</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.6226844937460783, -1.3207897042119257]</t>
+          <t>[0.9119738433844242, 1.8931319093704255]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.085517620236232e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.085517620236232e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>2797.486149343849</v>
+        <v>1033.043486120756</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[2645.659145691886, 2949.313152995812]</t>
+          <t>[959.2919162066619, 1106.7950560348509]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.642702702702778</v>
+        <v>18.71255255255281</v>
       </c>
       <c r="X2" t="n">
-        <v>5.063963963964034</v>
+        <v>16.83165165165188</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.221441441441521</v>
+        <v>20.59345345345373</v>
       </c>
     </row>
     <row r="3">
@@ -645,14 +645,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.97000000000031</v>
+        <v>23.88000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>6.100126508929432e-16</v>
+        <v>8.111218444750003e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>324.0513285420233</v>
+        <v>444.1281749391604</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[258.21575400260497, 389.8869030814417]</t>
+          <t>[399.4852544366145, 488.77109544170634]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.270500396288118</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.069237203265348, 2.4717635893108882]</t>
+          <t>[2.018921405009656, 2.220184598032426]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1192.397598162155</v>
+        <v>878.110926772106</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[1158.5194873146093, 1226.2757090097002]</t>
+          <t>[854.5890859858691, 901.632767558343]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.30816816816837</v>
+        <v>15.82438438438458</v>
       </c>
       <c r="X3" t="n">
-        <v>14.54036036036055</v>
+        <v>15.44192192192211</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.07597597597619</v>
+        <v>16.20684684684705</v>
       </c>
     </row>
     <row r="4">
@@ -722,64 +722,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.76000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.018755707160039e-07</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H4" t="n">
-        <v>1.935482281769252e-06</v>
+        <v>8.111218444750003e-16</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>190.0485442068499</v>
+        <v>245.6811867712176</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[106.91855241725392, 273.1785359964459]</t>
+          <t>[195.6927270503673, 295.6696464920679]</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>8.657871329198485e-06</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.082233916149811e-05</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1823947686768852</v>
+        <v>1.981184556317887</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[-0.3459211130078854, 0.7107106503616558]</t>
+          <t>[1.7799213632951165, 2.182447749340657]</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.4979627741195662</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4979627741195662</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1013.954410364119</v>
+        <v>814.7923511202002</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[965.1136372887952, 1062.7951834394426]</t>
+          <t>[787.3728153691409, 842.2118868712596]</t>
         </is>
       </c>
       <c r="U4" t="n">
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.07027027027054</v>
+        <v>16.32288288288308</v>
       </c>
       <c r="X4" t="n">
-        <v>21.07243243243267</v>
+        <v>15.55923923923943</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.0681081081084</v>
+        <v>17.08652652652674</v>
       </c>
     </row>
     <row r="5">
@@ -807,60 +807,60 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4_hypo_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.05000000000032</v>
+        <v>23.46000000000023</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.997602166487923e-15</v>
+        <v>1.120623219885708e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54515575592161e-14</v>
+        <v>5.930521895646083e-06</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>212.2975912911384</v>
+        <v>170.3709833516993</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[145.14022868599227, 279.45495389628445]</t>
+          <t>[98.41639362103967, 242.32557308235891]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1.143086736377086e-09</v>
+        <v>5.171157336558707e-06</v>
       </c>
       <c r="N5" t="n">
-        <v>1.905144560628476e-09</v>
+        <v>6.894876448744943e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.9937370155499243</v>
+        <v>3.000079470995658</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, -0.6792632764518469]</t>
+          <t>[2.4969214884387347, 3.503237453552582]</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1.159013107709939e-09</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.448766384637423e-09</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1320.907824536239</v>
+        <v>1096.901004703583</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[1286.0980192224774, 1355.7176298500012]</t>
+          <t>[1053.1797666075693, 1140.6222427995965]</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -870,94 +870,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3.803703703703754</v>
+        <v>12.2583783783785</v>
       </c>
       <c r="X5" t="n">
-        <v>2.600000000000034</v>
+        <v>10.3796996996998</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.007407407407474</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>24.62000000000041</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.001038406061385388</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.002587408479407723</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>176.0917663989641</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[48.32270261069448, 303.86083018723366]</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>0.007057694919682111</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.007057694919682111</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-2.163579324994773</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[-2.817684702318773, -1.5094739476707724]</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.896884954139978e-10</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4.828141590233297e-10</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1500.606183353652</v>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>[1435.5253475430484, 1565.6870191642563]</t>
-        </is>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8.4777577577579</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.914714714714815</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11.04080080080098</v>
+        <v>14.13705705705719</v>
       </c>
     </row>
   </sheetData>
